--- a/data/pca/factorExposure/factorExposure_2016-06-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.008935644557091138</v>
+        <v>-0.0120239222289812</v>
       </c>
       <c r="C2">
-        <v>-0.05079773766120542</v>
+        <v>0.04012443256603446</v>
       </c>
       <c r="D2">
-        <v>-0.0400983621510964</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0628649446412116</v>
+      </c>
+      <c r="E2">
+        <v>0.07706166553243139</v>
+      </c>
+      <c r="F2">
+        <v>0.05969891818479042</v>
+      </c>
+      <c r="G2">
+        <v>-0.04383878294755945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03802670768388272</v>
+        <v>-0.02442060360633551</v>
       </c>
       <c r="C3">
-        <v>-0.1124110795314782</v>
+        <v>0.07240653727752973</v>
       </c>
       <c r="D3">
-        <v>-0.09206482663510807</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08064358996992144</v>
+      </c>
+      <c r="E3">
+        <v>0.06444419977671026</v>
+      </c>
+      <c r="F3">
+        <v>-0.02484889298440775</v>
+      </c>
+      <c r="G3">
+        <v>0.036093804022175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05843442831920902</v>
+        <v>-0.05620630300405906</v>
       </c>
       <c r="C4">
-        <v>-0.0599399047491086</v>
+        <v>0.0634475234776532</v>
       </c>
       <c r="D4">
-        <v>-0.03517064174511026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06025021778477714</v>
+      </c>
+      <c r="E4">
+        <v>0.07985077478126811</v>
+      </c>
+      <c r="F4">
+        <v>0.07369465545621126</v>
+      </c>
+      <c r="G4">
+        <v>0.03550916571217006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03815842040909991</v>
+        <v>-0.03467831391609144</v>
       </c>
       <c r="C6">
-        <v>-0.03831614331482561</v>
+        <v>0.03034793512501196</v>
       </c>
       <c r="D6">
-        <v>-0.03081944999845059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06227172641942059</v>
+      </c>
+      <c r="E6">
+        <v>0.08052967388876209</v>
+      </c>
+      <c r="F6">
+        <v>0.049559838603568</v>
+      </c>
+      <c r="G6">
+        <v>0.02151443229902632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01984581376631447</v>
+        <v>-0.01727119820500564</v>
       </c>
       <c r="C7">
-        <v>-0.04434508740004123</v>
+        <v>0.03775857796929497</v>
       </c>
       <c r="D7">
-        <v>0.003815114875888993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03871572464723114</v>
+      </c>
+      <c r="E7">
+        <v>0.05661528805678842</v>
+      </c>
+      <c r="F7">
+        <v>0.09354532881472319</v>
+      </c>
+      <c r="G7">
+        <v>0.008765383946848978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003557409843409362</v>
+        <v>-0.002577319967196998</v>
       </c>
       <c r="C8">
-        <v>-0.03256232142541883</v>
+        <v>0.03059228172136264</v>
       </c>
       <c r="D8">
-        <v>-0.0241362007594887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03369802749305842</v>
+      </c>
+      <c r="E8">
+        <v>0.05475912677122537</v>
+      </c>
+      <c r="F8">
+        <v>0.0311439104866327</v>
+      </c>
+      <c r="G8">
+        <v>0.005913751676695642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03167078549640252</v>
+        <v>-0.03577242453767094</v>
       </c>
       <c r="C9">
-        <v>-0.04639245346951723</v>
+        <v>0.05058844295803194</v>
       </c>
       <c r="D9">
-        <v>-0.01787231058489688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04363870254889991</v>
+      </c>
+      <c r="E9">
+        <v>0.06721538498416003</v>
+      </c>
+      <c r="F9">
+        <v>0.07939178955672527</v>
+      </c>
+      <c r="G9">
+        <v>0.02136655410005248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08342770380293189</v>
+        <v>-0.1036945469133516</v>
       </c>
       <c r="C10">
-        <v>0.1885167501727939</v>
+        <v>-0.193549672610992</v>
       </c>
       <c r="D10">
-        <v>0.009392204672027277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.008234210086776711</v>
+      </c>
+      <c r="E10">
+        <v>0.04405957941374378</v>
+      </c>
+      <c r="F10">
+        <v>0.03355520798898036</v>
+      </c>
+      <c r="G10">
+        <v>0.01200364415247105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03862683709791775</v>
+        <v>-0.03504328539264934</v>
       </c>
       <c r="C11">
-        <v>-0.05356763969828577</v>
+        <v>0.04927705006209845</v>
       </c>
       <c r="D11">
-        <v>-0.01688614092568488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0342681392923666</v>
+      </c>
+      <c r="E11">
+        <v>0.02187827622044842</v>
+      </c>
+      <c r="F11">
+        <v>0.06362903481385111</v>
+      </c>
+      <c r="G11">
+        <v>0.01680315400305965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04001939446870274</v>
+        <v>-0.03718522710970887</v>
       </c>
       <c r="C12">
-        <v>-0.04836255966018697</v>
+        <v>0.04641935735211229</v>
       </c>
       <c r="D12">
-        <v>-0.005535804878776636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02777976732006132</v>
+      </c>
+      <c r="E12">
+        <v>0.03029074570816396</v>
+      </c>
+      <c r="F12">
+        <v>0.06428461989527039</v>
+      </c>
+      <c r="G12">
+        <v>0.01320845341681843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01047331442014555</v>
+        <v>-0.01000842911736768</v>
       </c>
       <c r="C13">
-        <v>-0.05011070628225894</v>
+        <v>0.04122364462564224</v>
       </c>
       <c r="D13">
-        <v>-0.0133334783332011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05126322125891603</v>
+      </c>
+      <c r="E13">
+        <v>0.09125817997499187</v>
+      </c>
+      <c r="F13">
+        <v>0.08649186532087844</v>
+      </c>
+      <c r="G13">
+        <v>0.01904487135074716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.005632461121791299</v>
+        <v>-0.003943566953222406</v>
       </c>
       <c r="C14">
-        <v>-0.04037826586247362</v>
+        <v>0.03357149150502362</v>
       </c>
       <c r="D14">
-        <v>0.01023984022206669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02601284949002275</v>
+      </c>
+      <c r="E14">
+        <v>0.04513705296751293</v>
+      </c>
+      <c r="F14">
+        <v>0.08795781070455821</v>
+      </c>
+      <c r="G14">
+        <v>-0.00493862774678911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0002740808885112954</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004859155187280622</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007315396637973507</v>
+      </c>
+      <c r="E15">
+        <v>0.003319912433505862</v>
+      </c>
+      <c r="F15">
+        <v>0.005765370318888519</v>
+      </c>
+      <c r="G15">
+        <v>6.467093744710909e-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03539929651498548</v>
+        <v>-0.03318858735188695</v>
       </c>
       <c r="C16">
-        <v>-0.04769867012041732</v>
+        <v>0.04487557426013886</v>
       </c>
       <c r="D16">
-        <v>-0.0107300732702695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02806448093756557</v>
+      </c>
+      <c r="E16">
+        <v>0.03582509485722624</v>
+      </c>
+      <c r="F16">
+        <v>0.06403302569679635</v>
+      </c>
+      <c r="G16">
+        <v>0.001999638440761792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01836297731176788</v>
+        <v>-0.01463470634541912</v>
       </c>
       <c r="C19">
-        <v>-0.06484304618233383</v>
+        <v>0.04798638658030376</v>
       </c>
       <c r="D19">
-        <v>-0.08347095826465237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08972825729602051</v>
+      </c>
+      <c r="E19">
+        <v>0.1032746869304109</v>
+      </c>
+      <c r="F19">
+        <v>0.06186089508115072</v>
+      </c>
+      <c r="G19">
+        <v>-0.02830602172058489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01371242551669064</v>
+        <v>-0.01187450653502245</v>
       </c>
       <c r="C20">
-        <v>-0.04688649094696971</v>
+        <v>0.03877649691292908</v>
       </c>
       <c r="D20">
-        <v>-0.01214583653193112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03632992128831415</v>
+      </c>
+      <c r="E20">
+        <v>0.07334988517460574</v>
+      </c>
+      <c r="F20">
+        <v>0.06890421775818577</v>
+      </c>
+      <c r="G20">
+        <v>0.005797981252754692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.008059915397331151</v>
+        <v>-0.008113780896698621</v>
       </c>
       <c r="C21">
-        <v>-0.04909666277069153</v>
+        <v>0.04224061682549977</v>
       </c>
       <c r="D21">
-        <v>-0.03720653580816626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06586227576627365</v>
+      </c>
+      <c r="E21">
+        <v>0.114112624983508</v>
+      </c>
+      <c r="F21">
+        <v>0.1081852493976917</v>
+      </c>
+      <c r="G21">
+        <v>0.005122575365904921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0007998519435177431</v>
+        <v>-0.002441688867132046</v>
       </c>
       <c r="C22">
-        <v>-0.0006032253183587039</v>
+        <v>0.0247801817421941</v>
       </c>
       <c r="D22">
-        <v>-0.001611786750767784</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04249104033594906</v>
+      </c>
+      <c r="E22">
+        <v>0.03612771178341993</v>
+      </c>
+      <c r="F22">
+        <v>0.009398787957462297</v>
+      </c>
+      <c r="G22">
+        <v>0.03749739211535768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0008054598793847133</v>
+        <v>-0.002513136232253268</v>
       </c>
       <c r="C23">
-        <v>-0.0006031409034899911</v>
+        <v>0.02493547775649375</v>
       </c>
       <c r="D23">
-        <v>-0.001618924630843431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04215607972972829</v>
+      </c>
+      <c r="E23">
+        <v>0.03640455788061288</v>
+      </c>
+      <c r="F23">
+        <v>0.009177458243407509</v>
+      </c>
+      <c r="G23">
+        <v>0.03770095137937093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03180937872630039</v>
+        <v>-0.03283950166683092</v>
       </c>
       <c r="C24">
-        <v>-0.05006356095393634</v>
+        <v>0.05284341230110225</v>
       </c>
       <c r="D24">
-        <v>-0.01133391526001127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02838025515119678</v>
+      </c>
+      <c r="E24">
+        <v>0.03712795759864536</v>
+      </c>
+      <c r="F24">
+        <v>0.07056294037031961</v>
+      </c>
+      <c r="G24">
+        <v>0.009354336323952033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04534645058198602</v>
+        <v>-0.04264877109794156</v>
       </c>
       <c r="C25">
-        <v>-0.06233431494975245</v>
+        <v>0.05736209277664298</v>
       </c>
       <c r="D25">
-        <v>-0.003242927774239802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02742084128547196</v>
+      </c>
+      <c r="E25">
+        <v>0.02909079347987065</v>
+      </c>
+      <c r="F25">
+        <v>0.07380528787054426</v>
+      </c>
+      <c r="G25">
+        <v>0.02695161400546288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01435266318406955</v>
+        <v>-0.01406298955227656</v>
       </c>
       <c r="C26">
-        <v>-0.01904674240225719</v>
+        <v>0.017829607999813</v>
       </c>
       <c r="D26">
-        <v>0.0005044045640010317</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02419970747955729</v>
+      </c>
+      <c r="E26">
+        <v>0.04555966003833878</v>
+      </c>
+      <c r="F26">
+        <v>0.06339132113273559</v>
+      </c>
+      <c r="G26">
+        <v>-0.01387645735365686</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1005318642549851</v>
+        <v>-0.1399748037542502</v>
       </c>
       <c r="C28">
-        <v>0.2383250115670235</v>
+        <v>-0.2464831798107684</v>
       </c>
       <c r="D28">
-        <v>0.01403548078032972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02646994312446909</v>
+      </c>
+      <c r="E28">
+        <v>0.05989969631715102</v>
+      </c>
+      <c r="F28">
+        <v>0.05344360388343793</v>
+      </c>
+      <c r="G28">
+        <v>0.02179784256322899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006129852443839621</v>
+        <v>-0.005353827211747259</v>
       </c>
       <c r="C29">
-        <v>-0.03263366427196196</v>
+        <v>0.02969511667346793</v>
       </c>
       <c r="D29">
-        <v>0.01484221982383196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01959654900299921</v>
+      </c>
+      <c r="E29">
+        <v>0.04521985406415134</v>
+      </c>
+      <c r="F29">
+        <v>0.0820770825183355</v>
+      </c>
+      <c r="G29">
+        <v>0.008967229973393432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04200439052437357</v>
+        <v>-0.03899042681428289</v>
       </c>
       <c r="C30">
-        <v>-0.05457627939604975</v>
+        <v>0.0574900706442944</v>
       </c>
       <c r="D30">
-        <v>-0.07220625131277884</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1019165279354835</v>
+      </c>
+      <c r="E30">
+        <v>0.06861889884685757</v>
+      </c>
+      <c r="F30">
+        <v>0.07791541614238573</v>
+      </c>
+      <c r="G30">
+        <v>-0.01440194192696153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05371887590749735</v>
+        <v>-0.05520069460116848</v>
       </c>
       <c r="C31">
-        <v>-0.04601290468167975</v>
+        <v>0.06152640112001152</v>
       </c>
       <c r="D31">
-        <v>0.02449224515353219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006830259541964348</v>
+      </c>
+      <c r="E31">
+        <v>0.06866643625575521</v>
+      </c>
+      <c r="F31">
+        <v>0.06379985122954163</v>
+      </c>
+      <c r="G31">
+        <v>0.04673328449630183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002407513588958294</v>
+        <v>-0.004831234091140841</v>
       </c>
       <c r="C32">
-        <v>-0.03898896299959416</v>
+        <v>0.03284880923062618</v>
       </c>
       <c r="D32">
-        <v>-0.04776914122544197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05713115078251683</v>
+      </c>
+      <c r="E32">
+        <v>0.05188303195884166</v>
+      </c>
+      <c r="F32">
+        <v>0.0630300182003932</v>
+      </c>
+      <c r="G32">
+        <v>-0.01248446095577288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02421419696848776</v>
+        <v>-0.02248796305286923</v>
       </c>
       <c r="C33">
-        <v>-0.06074886202645324</v>
+        <v>0.05423463600357675</v>
       </c>
       <c r="D33">
-        <v>-0.04908060889809659</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08034150476877115</v>
+      </c>
+      <c r="E33">
+        <v>0.08219203747674023</v>
+      </c>
+      <c r="F33">
+        <v>0.1089881325217287</v>
+      </c>
+      <c r="G33">
+        <v>0.02015992417814908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04393291295452204</v>
+        <v>-0.04039615220480976</v>
       </c>
       <c r="C34">
-        <v>-0.06587814871872399</v>
+        <v>0.06441061007185714</v>
       </c>
       <c r="D34">
-        <v>-0.01788626085047453</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03810772524286601</v>
+      </c>
+      <c r="E34">
+        <v>0.01049612560627404</v>
+      </c>
+      <c r="F34">
+        <v>0.07686434744431403</v>
+      </c>
+      <c r="G34">
+        <v>0.01255389049734408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01366097416192607</v>
+        <v>-0.01326113157607751</v>
       </c>
       <c r="C36">
-        <v>-0.01621394223773796</v>
+        <v>0.01302511591806049</v>
       </c>
       <c r="D36">
-        <v>0.0003960414808149718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02705246309217702</v>
+      </c>
+      <c r="E36">
+        <v>0.05489791192916442</v>
+      </c>
+      <c r="F36">
+        <v>0.068286871001131</v>
+      </c>
+      <c r="G36">
+        <v>0.008743308999669673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0279210893814594</v>
+        <v>-0.02246037576425208</v>
       </c>
       <c r="C38">
-        <v>-0.02891481256571518</v>
+        <v>0.02244598838942522</v>
       </c>
       <c r="D38">
-        <v>0.008838854488104304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0239438506828729</v>
+      </c>
+      <c r="E38">
+        <v>0.04590725776875815</v>
+      </c>
+      <c r="F38">
+        <v>0.0539420794174361</v>
+      </c>
+      <c r="G38">
+        <v>0.002208969835279799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04161250040986152</v>
+        <v>-0.03782267470011743</v>
       </c>
       <c r="C39">
-        <v>-0.06604140863119194</v>
+        <v>0.06447816205227844</v>
       </c>
       <c r="D39">
-        <v>-0.02091271540150987</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05277209753751086</v>
+      </c>
+      <c r="E39">
+        <v>0.04097662211765997</v>
+      </c>
+      <c r="F39">
+        <v>0.08044230719203109</v>
+      </c>
+      <c r="G39">
+        <v>-0.01255636297856447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01132752266451746</v>
+        <v>-0.01257746272838173</v>
       </c>
       <c r="C40">
-        <v>-0.05078404933552305</v>
+        <v>0.03733200286468345</v>
       </c>
       <c r="D40">
-        <v>-0.01581797678377801</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03395357181709453</v>
+      </c>
+      <c r="E40">
+        <v>0.08009562904688958</v>
+      </c>
+      <c r="F40">
+        <v>0.06325637456000208</v>
+      </c>
+      <c r="G40">
+        <v>0.03761291956384506</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01981509254454761</v>
+        <v>-0.01850399030558464</v>
       </c>
       <c r="C41">
-        <v>-0.01172857491205687</v>
+        <v>0.01023745560592365</v>
       </c>
       <c r="D41">
-        <v>-0.0005357125873754009</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0173558607044131</v>
+      </c>
+      <c r="E41">
+        <v>0.05379989657721139</v>
+      </c>
+      <c r="F41">
+        <v>0.05847730939294799</v>
+      </c>
+      <c r="G41">
+        <v>0.002360844561841198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03621069919910123</v>
+        <v>-0.02840962641665928</v>
       </c>
       <c r="C43">
-        <v>-0.03344496569325002</v>
+        <v>0.02512016572948887</v>
       </c>
       <c r="D43">
-        <v>-0.02847426782867776</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04494822360569298</v>
+      </c>
+      <c r="E43">
+        <v>0.06795208915145867</v>
+      </c>
+      <c r="F43">
+        <v>0.06536225909456078</v>
+      </c>
+      <c r="G43">
+        <v>0.01996980525180908</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01031292408975864</v>
+        <v>-0.0124895576160131</v>
       </c>
       <c r="C44">
-        <v>-0.06524525050454685</v>
+        <v>0.04892159169234586</v>
       </c>
       <c r="D44">
-        <v>-0.01126523901574043</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03847976416348022</v>
+      </c>
+      <c r="E44">
+        <v>0.08528987267574482</v>
+      </c>
+      <c r="F44">
+        <v>0.06716751585704354</v>
+      </c>
+      <c r="G44">
+        <v>-0.008363196340410805</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.006153201541978036</v>
+        <v>-0.00799114506165787</v>
       </c>
       <c r="C46">
-        <v>-0.02859477577756191</v>
+        <v>0.02914289608846358</v>
       </c>
       <c r="D46">
-        <v>0.01620007080175542</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01449303570061804</v>
+      </c>
+      <c r="E46">
+        <v>0.05506814335925374</v>
+      </c>
+      <c r="F46">
+        <v>0.09629658398327715</v>
+      </c>
+      <c r="G46">
+        <v>0.002034395399606415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08061923708294</v>
+        <v>-0.08640936910335123</v>
       </c>
       <c r="C47">
-        <v>-0.07302204478125777</v>
+        <v>0.08258140724075833</v>
       </c>
       <c r="D47">
-        <v>0.02536548460306564</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01355504312387607</v>
+      </c>
+      <c r="E47">
+        <v>0.0713490845081239</v>
+      </c>
+      <c r="F47">
+        <v>0.06946163833928722</v>
+      </c>
+      <c r="G47">
+        <v>0.05148581471565639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.0172545912648209</v>
+        <v>-0.01551917313712821</v>
       </c>
       <c r="C48">
-        <v>-0.01565386342126295</v>
+        <v>0.01687307089119028</v>
       </c>
       <c r="D48">
-        <v>0.01532596500285435</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01544328760544116</v>
+      </c>
+      <c r="E48">
+        <v>0.06623197255787075</v>
+      </c>
+      <c r="F48">
+        <v>0.08538057226622094</v>
+      </c>
+      <c r="G48">
+        <v>0.007756744296939261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07816183835824055</v>
+        <v>-0.07007084831539398</v>
       </c>
       <c r="C50">
-        <v>-0.08153012968062644</v>
+        <v>0.07587548132333566</v>
       </c>
       <c r="D50">
-        <v>0.02490038546438982</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0001215484289346083</v>
+      </c>
+      <c r="E50">
+        <v>0.07541812074234312</v>
+      </c>
+      <c r="F50">
+        <v>0.0485975427980708</v>
+      </c>
+      <c r="G50">
+        <v>0.0688062417852396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01327070334554229</v>
+        <v>-0.009724554345586736</v>
       </c>
       <c r="C51">
-        <v>-0.0499433086310641</v>
+        <v>0.03221869125152382</v>
       </c>
       <c r="D51">
-        <v>-0.02819173668939996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04860851962535728</v>
+      </c>
+      <c r="E51">
+        <v>0.04377571653674474</v>
+      </c>
+      <c r="F51">
+        <v>0.07095916652929547</v>
+      </c>
+      <c r="G51">
+        <v>-0.02056538890514353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07824508273525092</v>
+        <v>-0.09234551020188071</v>
       </c>
       <c r="C53">
-        <v>-0.08092423640488952</v>
+        <v>0.08973856767974764</v>
       </c>
       <c r="D53">
-        <v>0.03833679408350375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03877110717389446</v>
+      </c>
+      <c r="E53">
+        <v>0.06893251057317838</v>
+      </c>
+      <c r="F53">
+        <v>0.07851035589562841</v>
+      </c>
+      <c r="G53">
+        <v>0.06440921531108866</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02950332905287327</v>
+        <v>-0.02729128185059219</v>
       </c>
       <c r="C54">
-        <v>-0.030064996440784</v>
+        <v>0.02841278863897733</v>
       </c>
       <c r="D54">
-        <v>-0.005016412033421461</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03197857519033868</v>
+      </c>
+      <c r="E54">
+        <v>0.05268315391778673</v>
+      </c>
+      <c r="F54">
+        <v>0.09235315525998093</v>
+      </c>
+      <c r="G54">
+        <v>0.009979666236168408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07258290944686885</v>
+        <v>-0.08406735886800072</v>
       </c>
       <c r="C55">
-        <v>-0.06161332803053422</v>
+        <v>0.07269089826700068</v>
       </c>
       <c r="D55">
-        <v>0.04844214996227884</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04699986019600069</v>
+      </c>
+      <c r="E55">
+        <v>0.05180939566736444</v>
+      </c>
+      <c r="F55">
+        <v>0.0545755458336844</v>
+      </c>
+      <c r="G55">
+        <v>0.0528958927645657</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1418055491491251</v>
+        <v>-0.1458959325178039</v>
       </c>
       <c r="C56">
-        <v>-0.1021026659357618</v>
+        <v>0.1113497877634373</v>
       </c>
       <c r="D56">
-        <v>0.03741212507069845</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04211027596241014</v>
+      </c>
+      <c r="E56">
+        <v>0.05311338772171058</v>
+      </c>
+      <c r="F56">
+        <v>0.03994892012511334</v>
+      </c>
+      <c r="G56">
+        <v>0.0593315731475386</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.001643979583134115</v>
+        <v>0.001096146470859801</v>
       </c>
       <c r="C57">
-        <v>0.01097690994466576</v>
+        <v>-0.006462399146810485</v>
       </c>
       <c r="D57">
-        <v>-0.003051734471398571</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.002181451998785432</v>
+      </c>
+      <c r="E57">
+        <v>0.002323608017644869</v>
+      </c>
+      <c r="F57">
+        <v>0.005881271141259379</v>
+      </c>
+      <c r="G57">
+        <v>0.002771051605071006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04186146161040575</v>
+        <v>-0.02545778839334592</v>
       </c>
       <c r="C58">
-        <v>-0.01689109795393148</v>
+        <v>0.019168554909256</v>
       </c>
       <c r="D58">
-        <v>-0.6354184954028858</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3957812998628943</v>
+      </c>
+      <c r="E58">
+        <v>0.6337569399886716</v>
+      </c>
+      <c r="F58">
+        <v>-0.5809186379879437</v>
+      </c>
+      <c r="G58">
+        <v>-0.1013350509572254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1375202769849119</v>
+        <v>-0.1466724841159079</v>
       </c>
       <c r="C59">
-        <v>0.1934380760750969</v>
+        <v>-0.1846391700356178</v>
       </c>
       <c r="D59">
-        <v>-0.01611703129113315</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02431975468258358</v>
+      </c>
+      <c r="E59">
+        <v>0.02591276054634069</v>
+      </c>
+      <c r="F59">
+        <v>0.01958981056082357</v>
+      </c>
+      <c r="G59">
+        <v>-0.03145729259414764</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3080403455601597</v>
+        <v>-0.2805147603936378</v>
       </c>
       <c r="C60">
-        <v>-0.107211031454496</v>
+        <v>0.1027241765769358</v>
       </c>
       <c r="D60">
-        <v>-0.1726428832621544</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2430098934764267</v>
+      </c>
+      <c r="E60">
+        <v>-0.2638596233764134</v>
+      </c>
+      <c r="F60">
+        <v>-0.07830795144772126</v>
+      </c>
+      <c r="G60">
+        <v>0.04666352821725209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03951551626494941</v>
+        <v>-0.03912080158145417</v>
       </c>
       <c r="C61">
-        <v>-0.0633349705450911</v>
+        <v>0.06038683967233417</v>
       </c>
       <c r="D61">
-        <v>-0.01624633479278538</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04448869953645344</v>
+      </c>
+      <c r="E61">
+        <v>0.04532368747443678</v>
+      </c>
+      <c r="F61">
+        <v>0.07098428227533837</v>
+      </c>
+      <c r="G61">
+        <v>0.01250914901528624</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01404769710491319</v>
+        <v>-0.01403654346391892</v>
       </c>
       <c r="C63">
-        <v>-0.03353339473784202</v>
+        <v>0.0316311353719755</v>
       </c>
       <c r="D63">
-        <v>0.0102469320307506</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02010448662277716</v>
+      </c>
+      <c r="E63">
+        <v>0.05685829955590498</v>
+      </c>
+      <c r="F63">
+        <v>0.06361532872160834</v>
+      </c>
+      <c r="G63">
+        <v>0.02810059353032042</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04723132881387516</v>
+        <v>-0.05509459900335228</v>
       </c>
       <c r="C64">
-        <v>-0.04834348639389303</v>
+        <v>0.05726668604268539</v>
       </c>
       <c r="D64">
-        <v>-0.007587773013565666</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01101509130739069</v>
+      </c>
+      <c r="E64">
+        <v>0.03987684806996877</v>
+      </c>
+      <c r="F64">
+        <v>0.08265143141760518</v>
+      </c>
+      <c r="G64">
+        <v>0.0119514804046472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08482624540074528</v>
+        <v>-0.06821970352960717</v>
       </c>
       <c r="C65">
-        <v>-0.03502078869628334</v>
+        <v>0.03204126712396855</v>
       </c>
       <c r="D65">
-        <v>-0.05284838449988107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08515265069326958</v>
+      </c>
+      <c r="E65">
+        <v>0.04288473162143126</v>
+      </c>
+      <c r="F65">
+        <v>-0.0003188825882241918</v>
+      </c>
+      <c r="G65">
+        <v>0.001522146036933729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05762357212873655</v>
+        <v>-0.0494875577081611</v>
       </c>
       <c r="C66">
-        <v>-0.09234262630984681</v>
+        <v>0.08371514468009024</v>
       </c>
       <c r="D66">
-        <v>-0.04329516925127569</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07806234562612896</v>
+      </c>
+      <c r="E66">
+        <v>0.04774795305388468</v>
+      </c>
+      <c r="F66">
+        <v>0.08232576142520646</v>
+      </c>
+      <c r="G66">
+        <v>0.00410272339574426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05016568090875326</v>
+        <v>-0.04449528631468387</v>
       </c>
       <c r="C67">
-        <v>-0.03155174313468497</v>
+        <v>0.02807016125893216</v>
       </c>
       <c r="D67">
-        <v>0.01171074303601765</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.009982135103665607</v>
+      </c>
+      <c r="E67">
+        <v>0.02427553324396414</v>
+      </c>
+      <c r="F67">
+        <v>0.04532182435273926</v>
+      </c>
+      <c r="G67">
+        <v>0.009399807342113833</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.136878107455675</v>
+        <v>-0.1557362756085161</v>
       </c>
       <c r="C68">
-        <v>0.2785318270936892</v>
+        <v>-0.2445940480454753</v>
       </c>
       <c r="D68">
-        <v>0.01948989881958938</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02081709535982193</v>
+      </c>
+      <c r="E68">
+        <v>0.04211802786434885</v>
+      </c>
+      <c r="F68">
+        <v>0.01250765625710972</v>
+      </c>
+      <c r="G68">
+        <v>0.009455387457019078</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08745163484443841</v>
+        <v>-0.08571529475740408</v>
       </c>
       <c r="C69">
-        <v>-0.07249582081225399</v>
+        <v>0.08976820528465733</v>
       </c>
       <c r="D69">
-        <v>0.03428646244384275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.004810587278927862</v>
+      </c>
+      <c r="E69">
+        <v>0.05574780360799812</v>
+      </c>
+      <c r="F69">
+        <v>0.08762764023585602</v>
+      </c>
+      <c r="G69">
+        <v>0.0302247247301416</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1236638248799212</v>
+        <v>-0.1461557997027494</v>
       </c>
       <c r="C71">
-        <v>0.247472918742576</v>
+        <v>-0.234945934202955</v>
       </c>
       <c r="D71">
-        <v>-0.01303495945223813</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.004096256919230001</v>
+      </c>
+      <c r="E71">
+        <v>0.06552901535008433</v>
+      </c>
+      <c r="F71">
+        <v>0.04812547631669701</v>
+      </c>
+      <c r="G71">
+        <v>0.03872140706835658</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08872758391924707</v>
+        <v>-0.0981088390506718</v>
       </c>
       <c r="C72">
-        <v>-0.05857466522706991</v>
+        <v>0.05893400887022005</v>
       </c>
       <c r="D72">
-        <v>-0.01232810203935882</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03373022120979036</v>
+      </c>
+      <c r="E72">
+        <v>0.02506948986836713</v>
+      </c>
+      <c r="F72">
+        <v>0.06618730342758591</v>
+      </c>
+      <c r="G72">
+        <v>0.03475549698574153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4049267882753721</v>
+        <v>-0.3438167481830341</v>
       </c>
       <c r="C73">
-        <v>-0.05840942750558991</v>
+        <v>0.06969237375557973</v>
       </c>
       <c r="D73">
-        <v>-0.4019567059250945</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4832888234502518</v>
+      </c>
+      <c r="E73">
+        <v>-0.4704127415021198</v>
+      </c>
+      <c r="F73">
+        <v>-0.2199484071795655</v>
+      </c>
+      <c r="G73">
+        <v>0.1065030462373716</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1024538716539219</v>
+        <v>-0.1081894924101976</v>
       </c>
       <c r="C74">
-        <v>-0.09887246069766442</v>
+        <v>0.09855784623395009</v>
       </c>
       <c r="D74">
-        <v>0.02044971127821577</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02994590705304002</v>
+      </c>
+      <c r="E74">
+        <v>0.06876987491226799</v>
+      </c>
+      <c r="F74">
+        <v>0.03841963124174504</v>
+      </c>
+      <c r="G74">
+        <v>0.07232992007795981</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2500488722361805</v>
+        <v>-0.255469239388349</v>
       </c>
       <c r="C75">
-        <v>-0.1113885496008255</v>
+        <v>0.1356066134740876</v>
       </c>
       <c r="D75">
-        <v>0.09183600374808348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1255524545969753</v>
+      </c>
+      <c r="E75">
+        <v>0.06388632211835861</v>
+      </c>
+      <c r="F75">
+        <v>0.01770414608749769</v>
+      </c>
+      <c r="G75">
+        <v>0.07805123404189249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1088757815153837</v>
+        <v>-0.1246526036250157</v>
       </c>
       <c r="C76">
-        <v>-0.09181136359019929</v>
+        <v>0.1008731734639128</v>
       </c>
       <c r="D76">
-        <v>0.05225613841255891</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05919352659098227</v>
+      </c>
+      <c r="E76">
+        <v>0.07963323828733954</v>
+      </c>
+      <c r="F76">
+        <v>0.06040596804239673</v>
+      </c>
+      <c r="G76">
+        <v>0.05774828113171835</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07426598737213481</v>
+        <v>-0.05895955176629921</v>
       </c>
       <c r="C77">
-        <v>-0.06121220411714065</v>
+        <v>0.07154991617520159</v>
       </c>
       <c r="D77">
-        <v>-0.05151372530176352</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06339988885288898</v>
+      </c>
+      <c r="E77">
+        <v>0.09503686032397428</v>
+      </c>
+      <c r="F77">
+        <v>0.1084713332708347</v>
+      </c>
+      <c r="G77">
+        <v>-0.143975625834992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.0451302983012947</v>
+        <v>-0.0425014174276383</v>
       </c>
       <c r="C78">
-        <v>-0.05107688168780435</v>
+        <v>0.0576904358823504</v>
       </c>
       <c r="D78">
-        <v>-0.02716892797298123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06416546919605114</v>
+      </c>
+      <c r="E78">
+        <v>0.05280553270956654</v>
+      </c>
+      <c r="F78">
+        <v>0.0835661982965243</v>
+      </c>
+      <c r="G78">
+        <v>0.007737499107307944</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02778183200740378</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04488755143811494</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05959702407410193</v>
+      </c>
+      <c r="E79">
+        <v>0.06730379458552922</v>
+      </c>
+      <c r="F79">
+        <v>0.03097556363573973</v>
+      </c>
+      <c r="G79">
+        <v>0.07952834909168065</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03980630816543816</v>
+        <v>-0.03088862294291866</v>
       </c>
       <c r="C80">
-        <v>-0.0511765487574363</v>
+        <v>0.05109082087161209</v>
       </c>
       <c r="D80">
-        <v>-0.02517575672237174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03835858566882797</v>
+      </c>
+      <c r="E80">
+        <v>0.01516957260835414</v>
+      </c>
+      <c r="F80">
+        <v>0.03197771874640736</v>
+      </c>
+      <c r="G80">
+        <v>-0.04482665976859496</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1389580181342071</v>
+        <v>-0.138899918441306</v>
       </c>
       <c r="C81">
-        <v>-0.0824427166832901</v>
+        <v>0.09768725879665534</v>
       </c>
       <c r="D81">
-        <v>0.07684824585291408</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1022423986397467</v>
+      </c>
+      <c r="E81">
+        <v>0.08177759655459511</v>
+      </c>
+      <c r="F81">
+        <v>0.005781152541468371</v>
+      </c>
+      <c r="G81">
+        <v>0.05278676533405686</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1650428306187572</v>
+        <v>-0.2052135076034647</v>
       </c>
       <c r="C82">
-        <v>-0.09214766147405545</v>
+        <v>0.1549609891730778</v>
       </c>
       <c r="D82">
-        <v>0.1458736556721746</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2168977378476073</v>
+      </c>
+      <c r="E82">
+        <v>0.01096918459480005</v>
+      </c>
+      <c r="F82">
+        <v>0.1087972017947452</v>
+      </c>
+      <c r="G82">
+        <v>0.05278101534761782</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03777383806249043</v>
+        <v>-0.02617967327751109</v>
       </c>
       <c r="C83">
-        <v>-0.03044864922508614</v>
+        <v>0.04241583251433713</v>
       </c>
       <c r="D83">
-        <v>-0.03453144637307966</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03288326737173831</v>
+      </c>
+      <c r="E83">
+        <v>0.02294043015966412</v>
+      </c>
+      <c r="F83">
+        <v>0.04072994713104287</v>
+      </c>
+      <c r="G83">
+        <v>-0.0208763401943022</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001792631770365756</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0008367983606106685</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001074761002963572</v>
+      </c>
+      <c r="E84">
+        <v>0.0007278688362771628</v>
+      </c>
+      <c r="F84">
+        <v>0.0009881423914799813</v>
+      </c>
+      <c r="G84">
+        <v>-0.0003550664707393577</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2161254952128027</v>
+        <v>-0.200851803793734</v>
       </c>
       <c r="C85">
-        <v>-0.1098896809727443</v>
+        <v>0.1200831125716369</v>
       </c>
       <c r="D85">
-        <v>0.1190931573149857</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09738761652376161</v>
+      </c>
+      <c r="E85">
+        <v>-0.005673755710573615</v>
+      </c>
+      <c r="F85">
+        <v>-0.009525555539282532</v>
+      </c>
+      <c r="G85">
+        <v>0.1365134632774484</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005722074002333143</v>
+        <v>-0.008473165814781625</v>
       </c>
       <c r="C86">
-        <v>-0.03073618213251133</v>
+        <v>0.0223644235475661</v>
       </c>
       <c r="D86">
-        <v>-0.03086578024702897</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05454762127664711</v>
+      </c>
+      <c r="E86">
+        <v>0.06760175702809032</v>
+      </c>
+      <c r="F86">
+        <v>0.1233607631611546</v>
+      </c>
+      <c r="G86">
+        <v>-0.009605524123188264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02211830517889175</v>
+        <v>-0.0215502464572338</v>
       </c>
       <c r="C87">
-        <v>-0.006150751621836143</v>
+        <v>0.01506132626916034</v>
       </c>
       <c r="D87">
-        <v>-0.08242367327381546</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08547287617151179</v>
+      </c>
+      <c r="E87">
+        <v>0.1187518976671871</v>
+      </c>
+      <c r="F87">
+        <v>0.06144005387647713</v>
+      </c>
+      <c r="G87">
+        <v>-0.0445242727079426</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.103092634970094</v>
+        <v>-0.09134103535328209</v>
       </c>
       <c r="C88">
-        <v>-0.07261265333671271</v>
+        <v>0.06325572826427671</v>
       </c>
       <c r="D88">
-        <v>0.02395485269394971</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.006151289588874872</v>
+      </c>
+      <c r="E88">
+        <v>0.04696213021063218</v>
+      </c>
+      <c r="F88">
+        <v>0.06666158930078829</v>
+      </c>
+      <c r="G88">
+        <v>-0.02299810964157081</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1969322831798888</v>
+        <v>-0.2266243260673855</v>
       </c>
       <c r="C89">
-        <v>0.3717371084580533</v>
+        <v>-0.3767128616760103</v>
       </c>
       <c r="D89">
-        <v>0.03278183987575051</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02051478508352306</v>
+      </c>
+      <c r="E89">
+        <v>0.06619296262451875</v>
+      </c>
+      <c r="F89">
+        <v>0.0763309487159682</v>
+      </c>
+      <c r="G89">
+        <v>-0.06385121365658131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1865053989693949</v>
+        <v>-0.2040913508960547</v>
       </c>
       <c r="C90">
-        <v>0.3306349650082484</v>
+        <v>-0.3093139883323031</v>
       </c>
       <c r="D90">
-        <v>0.03469808160332467</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02389843938035023</v>
+      </c>
+      <c r="E90">
+        <v>0.0721095320435482</v>
+      </c>
+      <c r="F90">
+        <v>0.03494981665879215</v>
+      </c>
+      <c r="G90">
+        <v>-0.01481891434214593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1859862156255513</v>
+        <v>-0.1842719095123394</v>
       </c>
       <c r="C91">
-        <v>-0.1314989443445202</v>
+        <v>0.1461484930178994</v>
       </c>
       <c r="D91">
-        <v>0.08827592577146204</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1032538543640909</v>
+      </c>
+      <c r="E91">
+        <v>0.06316009391481778</v>
+      </c>
+      <c r="F91">
+        <v>0.03167779274429215</v>
+      </c>
+      <c r="G91">
+        <v>0.0599964554032935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1702977800530747</v>
+        <v>-0.1845160252249424</v>
       </c>
       <c r="C92">
-        <v>0.2781144766268162</v>
+        <v>-0.2842525577558945</v>
       </c>
       <c r="D92">
-        <v>0.01503455823253138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0194317037009375</v>
+      </c>
+      <c r="E92">
+        <v>0.07301661799321303</v>
+      </c>
+      <c r="F92">
+        <v>0.08159715351127042</v>
+      </c>
+      <c r="G92">
+        <v>-0.008585962090759741</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2093419557585107</v>
+        <v>-0.2271173758800939</v>
       </c>
       <c r="C93">
-        <v>0.3328197784478735</v>
+        <v>-0.3156990184071547</v>
       </c>
       <c r="D93">
-        <v>0.03347370372065985</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01771452851244388</v>
+      </c>
+      <c r="E93">
+        <v>0.04596808878735068</v>
+      </c>
+      <c r="F93">
+        <v>0.03466618144001161</v>
+      </c>
+      <c r="G93">
+        <v>0.02907384999472302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3443831065208624</v>
+        <v>-0.3454351715987938</v>
       </c>
       <c r="C94">
-        <v>-0.1729341985027381</v>
+        <v>0.1996313150824157</v>
       </c>
       <c r="D94">
-        <v>0.4829276179021726</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.5006171284851362</v>
+      </c>
+      <c r="E94">
+        <v>-0.003045926380723217</v>
+      </c>
+      <c r="F94">
+        <v>-0.4489913861026955</v>
+      </c>
+      <c r="G94">
+        <v>-0.344206680629114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1092972285209512</v>
+        <v>-0.0820646063279982</v>
       </c>
       <c r="C95">
-        <v>-0.07481727539005807</v>
+        <v>0.06400806496804601</v>
       </c>
       <c r="D95">
-        <v>-0.1376155032756579</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1698579149217822</v>
+      </c>
+      <c r="E95">
+        <v>-0.1065033254681583</v>
+      </c>
+      <c r="F95">
+        <v>0.2575868859319363</v>
+      </c>
+      <c r="G95">
+        <v>-0.8527608197813983</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.193101394037687</v>
+        <v>-0.1858957538071013</v>
       </c>
       <c r="C98">
-        <v>-0.02117195142349581</v>
+        <v>0.04092378830664687</v>
       </c>
       <c r="D98">
-        <v>-0.1523981002741488</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1941257361585347</v>
+      </c>
+      <c r="E98">
+        <v>-0.1431737973750824</v>
+      </c>
+      <c r="F98">
+        <v>-0.02943485704069789</v>
+      </c>
+      <c r="G98">
+        <v>0.094545411986056</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00608686650968686</v>
+        <v>-0.005412919091342806</v>
       </c>
       <c r="C101">
-        <v>-0.03263322248124746</v>
+        <v>0.02942553454249595</v>
       </c>
       <c r="D101">
-        <v>0.01553793091502548</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01899639426646161</v>
+      </c>
+      <c r="E101">
+        <v>0.04582345082389493</v>
+      </c>
+      <c r="F101">
+        <v>0.08173660162298707</v>
+      </c>
+      <c r="G101">
+        <v>0.007851968164821003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1210097038782234</v>
+        <v>-0.1237442342294828</v>
       </c>
       <c r="C102">
-        <v>-0.07752225307309392</v>
+        <v>0.1030968790866586</v>
       </c>
       <c r="D102">
-        <v>0.02420550304453553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04096196798873573</v>
+      </c>
+      <c r="E102">
+        <v>0.000192516703400298</v>
+      </c>
+      <c r="F102">
+        <v>0.04748723108459937</v>
+      </c>
+      <c r="G102">
+        <v>0.01858776309871136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
